--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6B49EA4-DF8A-4FCF-9656-04854F6E25A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Coding\CalPal-master\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B44D5-505A-4FBC-A78D-E06A8FD9B98B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>First Name</t>
   </si>
@@ -34,44 +34,77 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Birth-day</t>
+  </si>
+  <si>
+    <t>Birth-month</t>
+  </si>
+  <si>
+    <t>Birth-year</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t>Steve</t>
   </si>
   <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>john.legend@gmail.com</t>
+  </si>
+  <si>
     <t>steve.smith@gmail.com</t>
   </si>
   <si>
-    <t>Stan</t>
-  </si>
-  <si>
     <t>stan.smith@gmail.com</t>
   </si>
   <si>
+    <t>jasmine@gmail.com</t>
+  </si>
+  <si>
+    <t>Dog1</t>
+  </si>
+  <si>
     <t>Stevetheboy2</t>
   </si>
   <si>
     <t>Stantheman1</t>
   </si>
   <si>
-    <t>Dog1</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>john.legend@gmail.com</t>
+    <t>Cat2</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,15 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,22 +137,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,44 +189,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -213,14 +254,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -248,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,223 +334,355 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="A6:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1991</v>
+      </c>
+      <c r="J2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1992</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1993</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1994</v>
+      </c>
+      <c r="J5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{09FB8811-D70C-4BE5-8ED3-543177176A6F}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{02C5FD1A-CF9E-4E3D-B341-6A72566F97E1}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{5A8DA6A9-1E8D-43D3-8870-8CF574DF380D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Coding\CalPal-master\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B44D5-505A-4FBC-A78D-E06A8FD9B98B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>First Name</t>
   </si>
@@ -49,6 +43,12 @@
     <t>Height</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Calorie goal</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -61,6 +61,21 @@
     <t>Jasmine</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Elicina</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -70,6 +85,18 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Crimea</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
     <t>john.legend@gmail.com</t>
   </si>
   <si>
@@ -82,6 +109,21 @@
     <t>jasmine@gmail.com</t>
   </si>
   <si>
+    <t>superman@gmail.com</t>
+  </si>
+  <si>
+    <t>elincia.crimea@gmail.com</t>
+  </si>
+  <si>
+    <t>lloyd.reed@gmail.com</t>
+  </si>
+  <si>
+    <t>bob.smith.1990@gmail.com</t>
+  </si>
+  <si>
+    <t>roy.harper@gmail.com</t>
+  </si>
+  <si>
     <t>Dog1</t>
   </si>
   <si>
@@ -94,17 +136,47 @@
     <t>Cat2</t>
   </si>
   <si>
+    <t>iamsuperman</t>
+  </si>
+  <si>
+    <t>blesscrimea</t>
+  </si>
+  <si>
+    <t>whitewolf</t>
+  </si>
+  <si>
+    <t>bobsmith1990</t>
+  </si>
+  <si>
+    <t>iamredarrow</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,14 +239,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -221,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,16 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A6:J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,25 +561,31 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -567,25 +599,31 @@
       <c r="J2">
         <v>72</v>
       </c>
+      <c r="K2">
+        <v>210</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -599,25 +637,31 @@
       <c r="J3">
         <v>70</v>
       </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -631,25 +675,31 @@
       <c r="J4">
         <v>60</v>
       </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -663,24 +713,202 @@
       <c r="J5">
         <v>68</v>
       </c>
+      <c r="K5">
+        <v>140</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1990</v>
+      </c>
+      <c r="J6">
+        <v>76</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1998</v>
+      </c>
+      <c r="J7">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>130</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1997</v>
+      </c>
+      <c r="J8">
+        <v>71</v>
+      </c>
+      <c r="K8">
+        <v>160</v>
+      </c>
+      <c r="L8">
+        <v>600</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
